--- a/data/CAP.xlsx
+++ b/data/CAP.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="352">
   <si>
     <t>Liên Hệ</t>
   </si>
@@ -73,7 +73,7 @@
     <t>Ngày xuất</t>
   </si>
   <si>
-    <t>26/11/2025</t>
+    <t>17/12/2025</t>
   </si>
   <si>
     <t>CAP</t>
@@ -185,6 +185,9 @@
   </si>
   <si>
     <t>Q2 2025</t>
+  </si>
+  <si>
+    <t>Q3 2025</t>
   </si>
   <si>
     <t>TÀI SẢN NGẮN HẠN</t>
@@ -1802,7 +1805,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0D1F27F-35E6-5C48-8053-57EA86EBE2B3}">
-  <dimension ref="A1:AR141"/>
+  <dimension ref="A1:AS141"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
@@ -1854,6 +1857,7 @@
     <col min="42" max="42" width="17.453125" customWidth="true" bestFit="true"/>
     <col min="43" max="43" width="16.7890625" customWidth="true" bestFit="true"/>
     <col min="44" max="44" width="17.453125" customWidth="true" bestFit="true"/>
+    <col min="45" max="45" width="17.453125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="17.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2029,10 +2033,13 @@
       <c r="AR11" s="6" t="s">
         <v>49</v>
       </c>
+      <c r="AS11" s="6" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="16" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B12" s="13" t="n">
         <v>9.156231867E10</v>
@@ -2159,11 +2166,14 @@
       </c>
       <c r="AR12" s="13" t="n">
         <v>2.19853008299E11</v>
+      </c>
+      <c r="AS12" s="13" t="n">
+        <v>2.22388789856E11</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="16" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B13" s="13" t="n">
         <v>1.1039159664E10</v>
@@ -2290,11 +2300,14 @@
       </c>
       <c r="AR13" s="13" t="n">
         <v>7.867847284E9</v>
+      </c>
+      <c r="AS13" s="13" t="n">
+        <v>9.611326275E9</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B14" s="13" t="n">
         <v>8.039159664E9</v>
@@ -2421,11 +2434,14 @@
       </c>
       <c r="AR14" s="13" t="n">
         <v>7.867847284E9</v>
+      </c>
+      <c r="AS14" s="13" t="n">
+        <v>9.611326275E9</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B15" s="13" t="n">
         <v>3.0E9</v>
@@ -2551,12 +2567,15 @@
         <v>3.5E10</v>
       </c>
       <c r="AR15" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS15" s="13" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B16" s="13" t="n">
         <v>0.0</v>
@@ -2683,11 +2702,14 @@
       </c>
       <c r="AR16" s="13" t="n">
         <v>7.0E10</v>
+      </c>
+      <c r="AS16" s="13" t="n">
+        <v>1.3E11</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B17" s="13" t="n">
         <v>0.0</v>
@@ -2813,12 +2835,15 @@
         <v>0.0</v>
       </c>
       <c r="AR17" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS17" s="13" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="14" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B18" s="13" t="n">
         <v>0.0</v>
@@ -2944,12 +2969,15 @@
         <v>0.0</v>
       </c>
       <c r="AR18" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS18" s="13" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="14" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B19" s="13" t="n">
         <v>0.0</v>
@@ -3076,11 +3104,14 @@
       </c>
       <c r="AR19" s="13" t="n">
         <v>7.0E10</v>
+      </c>
+      <c r="AS19" s="13" t="n">
+        <v>1.3E11</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="16" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B20" s="13" t="n">
         <v>6.894733101E9</v>
@@ -3207,11 +3238,14 @@
       </c>
       <c r="AR20" s="13" t="n">
         <v>4.9066764361E10</v>
+      </c>
+      <c r="AS20" s="13" t="n">
+        <v>6.6829993473E10</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B21" s="13" t="n">
         <v>5.325172057E9</v>
@@ -3338,11 +3372,14 @@
       </c>
       <c r="AR21" s="13" t="n">
         <v>2.8603151043E10</v>
+      </c>
+      <c r="AS21" s="13" t="n">
+        <v>5.9074735399E10</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B22" s="13" t="n">
         <v>5.904E8</v>
@@ -3469,11 +3506,14 @@
       </c>
       <c r="AR22" s="13" t="n">
         <v>1.7857294723E10</v>
+      </c>
+      <c r="AS22" s="13" t="n">
+        <v>4.032406689E9</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="14" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B23" s="13" t="n">
         <v>0.0</v>
@@ -3599,12 +3639,15 @@
         <v>0.0</v>
       </c>
       <c r="AR23" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS23" s="13" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="14" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B24" s="13" t="n">
         <v>0.0</v>
@@ -3730,12 +3773,15 @@
         <v>0.0</v>
       </c>
       <c r="AR24" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS24" s="13" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="14" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B25" s="13" t="n">
         <v>0.0</v>
@@ -3861,12 +3907,15 @@
         <v>0.0</v>
       </c>
       <c r="AR25" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS25" s="13" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="14" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B26" s="13" t="n">
         <v>1.378744976E9</v>
@@ -3993,11 +4042,14 @@
       </c>
       <c r="AR26" s="13" t="n">
         <v>2.71850857E9</v>
+      </c>
+      <c r="AS26" s="13" t="n">
+        <v>3.83504136E9</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="14" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B27" s="13" t="n">
         <v>-3.99583932E8</v>
@@ -4123,12 +4175,15 @@
         <v>-1.12189975E8</v>
       </c>
       <c r="AR27" s="13" t="n">
+        <v>-1.12189975E8</v>
+      </c>
+      <c r="AS27" s="13" t="n">
         <v>-1.12189975E8</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="14" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B28" s="13" t="n">
         <v>0.0</v>
@@ -4254,12 +4309,15 @@
         <v>0.0</v>
       </c>
       <c r="AR28" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS28" s="13" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="16" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B29" s="13" t="n">
         <v>7.3455441805E10</v>
@@ -4386,11 +4444,14 @@
       </c>
       <c r="AR29" s="13" t="n">
         <v>9.1883744875E10</v>
+      </c>
+      <c r="AS29" s="13" t="n">
+        <v>1.5876312593E10</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="14" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B30" s="13" t="n">
         <v>7.3489275268E10</v>
@@ -4517,11 +4578,14 @@
       </c>
       <c r="AR30" s="13" t="n">
         <v>9.1883744875E10</v>
+      </c>
+      <c r="AS30" s="13" t="n">
+        <v>1.5876312593E10</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="14" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B31" s="13" t="n">
         <v>-3.3833463E7</v>
@@ -4647,12 +4711,15 @@
         <v>0.0</v>
       </c>
       <c r="AR31" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS31" s="13" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="16" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B32" s="13" t="n">
         <v>1.729841E8</v>
@@ -4779,11 +4846,14 @@
       </c>
       <c r="AR32" s="13" t="n">
         <v>1.034651779E9</v>
+      </c>
+      <c r="AS32" s="13" t="n">
+        <v>7.1157515E7</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="14" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B33" s="13" t="n">
         <v>1.729841E8</v>
@@ -4910,11 +4980,14 @@
       </c>
       <c r="AR33" s="13" t="n">
         <v>8.09158761E8</v>
+      </c>
+      <c r="AS33" s="13" t="n">
+        <v>7.1157515E7</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="14" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B34" s="13" t="n">
         <v>0.0</v>
@@ -5040,12 +5113,15 @@
         <v>0.0</v>
       </c>
       <c r="AR34" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS34" s="13" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="14" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B35" s="13" t="n">
         <v>0.0</v>
@@ -5172,11 +5248,14 @@
       </c>
       <c r="AR35" s="13" t="n">
         <v>2.25493018E8</v>
+      </c>
+      <c r="AS35" s="13" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="14" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B36" s="13" t="n">
         <v>0.0</v>
@@ -5302,12 +5381,15 @@
         <v>0.0</v>
       </c>
       <c r="AR36" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS36" s="13" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="14" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B37" s="13" t="n">
         <v>0.0</v>
@@ -5433,12 +5515,15 @@
         <v>0.0</v>
       </c>
       <c r="AR37" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS37" s="13" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="16" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B38" s="13" t="n">
         <v>2.8034650764E10</v>
@@ -5565,11 +5650,14 @@
       </c>
       <c r="AR38" s="13" t="n">
         <v>2.8085432309E10</v>
+      </c>
+      <c r="AS38" s="13" t="n">
+        <v>5.550236759E10</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="16" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B39" s="13" t="n">
         <v>0.0</v>
@@ -5695,12 +5783,15 @@
         <v>0.0</v>
       </c>
       <c r="AR39" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS39" s="13" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="14" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B40" s="13" t="n">
         <v>0.0</v>
@@ -5826,12 +5917,15 @@
         <v>0.0</v>
       </c>
       <c r="AR40" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS40" s="13" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="14" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B41" s="13" t="n">
         <v>0.0</v>
@@ -5957,12 +6051,15 @@
         <v>0.0</v>
       </c>
       <c r="AR41" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS41" s="13" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="14" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B42" s="13" t="n">
         <v>0.0</v>
@@ -6088,12 +6185,15 @@
         <v>0.0</v>
       </c>
       <c r="AR42" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS42" s="13" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="14" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B43" s="13" t="n">
         <v>0.0</v>
@@ -6219,12 +6319,15 @@
         <v>0.0</v>
       </c>
       <c r="AR43" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS43" s="13" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B44" s="13" t="n">
         <v>0.0</v>
@@ -6350,12 +6453,15 @@
         <v>0.0</v>
       </c>
       <c r="AR44" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS44" s="13" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="14" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B45" s="13" t="n">
         <v>0.0</v>
@@ -6481,12 +6587,15 @@
         <v>0.0</v>
       </c>
       <c r="AR45" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS45" s="13" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="14" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B46" s="13" t="n">
         <v>0.0</v>
@@ -6612,12 +6721,15 @@
         <v>0.0</v>
       </c>
       <c r="AR46" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS46" s="13" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="16" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B47" s="13" t="n">
         <v>2.8034650764E10</v>
@@ -6744,11 +6856,14 @@
       </c>
       <c r="AR47" s="13" t="n">
         <v>1.7449990601E10</v>
+      </c>
+      <c r="AS47" s="13" t="n">
+        <v>1.5455770584E10</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="16" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B48" s="13" t="n">
         <v>2.8034650764E10</v>
@@ -6875,11 +6990,14 @@
       </c>
       <c r="AR48" s="13" t="n">
         <v>1.7449990601E10</v>
+      </c>
+      <c r="AS48" s="13" t="n">
+        <v>1.5455770584E10</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="14" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B49" s="13" t="n">
         <v>1.64931209008E11</v>
@@ -7006,11 +7124,14 @@
       </c>
       <c r="AR49" s="13" t="n">
         <v>1.76547271005E11</v>
+      </c>
+      <c r="AS49" s="13" t="n">
+        <v>1.76590419876E11</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="14" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B50" s="13" t="n">
         <v>-1.36896558244E11</v>
@@ -7137,11 +7258,14 @@
       </c>
       <c r="AR50" s="13" t="n">
         <v>-1.59097280404E11</v>
+      </c>
+      <c r="AS50" s="13" t="n">
+        <v>-1.61134649292E11</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="16" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B51" s="13" t="n">
         <v>0.0</v>
@@ -7267,12 +7391,15 @@
         <v>0.0</v>
       </c>
       <c r="AR51" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS51" s="13" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="14" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B52" s="13" t="n">
         <v>0.0</v>
@@ -7398,12 +7525,15 @@
         <v>0.0</v>
       </c>
       <c r="AR52" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS52" s="13" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="14" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B53" s="13" t="n">
         <v>0.0</v>
@@ -7529,12 +7659,15 @@
         <v>0.0</v>
       </c>
       <c r="AR53" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS53" s="13" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="16" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B54" s="13" t="n">
         <v>0.0</v>
@@ -7660,12 +7793,15 @@
         <v>0.0</v>
       </c>
       <c r="AR54" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS54" s="13" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="14" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B55" s="13" t="n">
         <v>7.5E7</v>
@@ -7791,12 +7927,15 @@
         <v>1.71E8</v>
       </c>
       <c r="AR55" s="13" t="n">
+        <v>1.71E8</v>
+      </c>
+      <c r="AS55" s="13" t="n">
         <v>1.71E8</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="14" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B56" s="13" t="n">
         <v>-7.5E7</v>
@@ -7922,12 +8061,15 @@
         <v>-1.71E8</v>
       </c>
       <c r="AR56" s="13" t="n">
+        <v>-1.71E8</v>
+      </c>
+      <c r="AS56" s="13" t="n">
         <v>-1.71E8</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="16" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B57" s="13" t="n">
         <v>0.0</v>
@@ -8053,12 +8195,15 @@
         <v>0.0</v>
       </c>
       <c r="AR57" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS57" s="13" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="16" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B58" s="13" t="n">
         <v>0.0</v>
@@ -8184,12 +8329,15 @@
         <v>0.0</v>
       </c>
       <c r="AR58" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS58" s="13" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="14" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B59" s="13" t="n">
         <v>0.0</v>
@@ -8315,12 +8463,15 @@
         <v>0.0</v>
       </c>
       <c r="AR59" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS59" s="13" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="14" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B60" s="13" t="n">
         <v>0.0</v>
@@ -8446,12 +8597,15 @@
         <v>0.0</v>
       </c>
       <c r="AR60" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS60" s="13" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="16" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B61" s="13" t="n">
         <v>0.0</v>
@@ -8578,11 +8732,14 @@
       </c>
       <c r="AR61" s="13" t="n">
         <v>1.0246612536E10</v>
+      </c>
+      <c r="AS61" s="13" t="n">
+        <v>3.9715470097E10</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="14" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B62" s="13" t="n">
         <v>0.0</v>
@@ -8708,12 +8865,15 @@
         <v>0.0</v>
       </c>
       <c r="AR62" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS62" s="13" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="14" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B63" s="13" t="n">
         <v>0.0</v>
@@ -8840,11 +9000,14 @@
       </c>
       <c r="AR63" s="13" t="n">
         <v>1.0246612536E10</v>
+      </c>
+      <c r="AS63" s="13" t="n">
+        <v>3.9715470097E10</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="16" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B64" s="13" t="n">
         <v>0.0</v>
@@ -8970,12 +9133,15 @@
         <v>0.0</v>
       </c>
       <c r="AR64" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS64" s="13" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="14" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B65" s="13" t="n">
         <v>0.0</v>
@@ -9101,12 +9267,15 @@
         <v>0.0</v>
       </c>
       <c r="AR65" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS65" s="13" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="14" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B66" s="13" t="n">
         <v>0.0</v>
@@ -9232,12 +9401,15 @@
         <v>0.0</v>
       </c>
       <c r="AR66" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS66" s="13" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="14" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B67" s="13" t="n">
         <v>0.0</v>
@@ -9363,12 +9535,15 @@
         <v>0.0</v>
       </c>
       <c r="AR67" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS67" s="13" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="14" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B68" s="13" t="n">
         <v>0.0</v>
@@ -9494,12 +9669,15 @@
         <v>0.0</v>
       </c>
       <c r="AR68" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS68" s="13" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="14" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B69" s="13" t="n">
         <v>0.0</v>
@@ -9625,12 +9803,15 @@
         <v>0.0</v>
       </c>
       <c r="AR69" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS69" s="13" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="14" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B70" s="13" t="n">
         <v>0.0</v>
@@ -9756,12 +9937,15 @@
         <v>0.0</v>
       </c>
       <c r="AR70" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS70" s="13" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="16" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B71" s="13" t="n">
         <v>0.0</v>
@@ -9888,11 +10072,14 @@
       </c>
       <c r="AR71" s="13" t="n">
         <v>3.88829172E8</v>
+      </c>
+      <c r="AS71" s="13" t="n">
+        <v>3.31126909E8</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="14" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B72" s="13" t="n">
         <v>0.0</v>
@@ -10019,11 +10206,14 @@
       </c>
       <c r="AR72" s="13" t="n">
         <v>3.88829172E8</v>
+      </c>
+      <c r="AS72" s="13" t="n">
+        <v>3.31126909E8</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="14" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B73" s="13" t="n">
         <v>0.0</v>
@@ -10149,12 +10339,15 @@
         <v>0.0</v>
       </c>
       <c r="AR73" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS73" s="13" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="14" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B74" s="13" t="n">
         <v>0.0</v>
@@ -10280,12 +10473,15 @@
         <v>0.0</v>
       </c>
       <c r="AR74" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS74" s="13" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="14" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B75" s="13" t="n">
         <v>0.0</v>
@@ -10411,12 +10607,15 @@
         <v>0.0</v>
       </c>
       <c r="AR75" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS75" s="13" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="14" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B76" s="13" t="n">
         <v>0.0</v>
@@ -10542,12 +10741,15 @@
         <v>0.0</v>
       </c>
       <c r="AR76" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS76" s="13" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="16" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B77" s="13" t="n">
         <v>1.19596969434E11</v>
@@ -10674,11 +10876,14 @@
       </c>
       <c r="AR77" s="13" t="n">
         <v>2.47938440608E11</v>
+      </c>
+      <c r="AS77" s="13" t="n">
+        <v>2.77891157446E11</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="16" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B78" s="13" t="n">
         <v>5.3750900522E10</v>
@@ -10805,11 +11010,14 @@
       </c>
       <c r="AR78" s="13" t="n">
         <v>3.7535557976E10</v>
+      </c>
+      <c r="AS78" s="13" t="n">
+        <v>3.9469449072E10</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="16" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B79" s="13" t="n">
         <v>5.3559050522E10</v>
@@ -10936,11 +11144,14 @@
       </c>
       <c r="AR79" s="13" t="n">
         <v>3.7508707976E10</v>
+      </c>
+      <c r="AS79" s="13" t="n">
+        <v>3.9442599072E10</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="14" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B80" s="13" t="n">
         <v>1.1954307144E10</v>
@@ -11067,11 +11278,14 @@
       </c>
       <c r="AR80" s="13" t="n">
         <v>1.1147780105E10</v>
+      </c>
+      <c r="AS80" s="13" t="n">
+        <v>1.6724321847E10</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="14" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B81" s="13" t="n">
         <v>7.75673356E8</v>
@@ -11198,11 +11412,14 @@
       </c>
       <c r="AR81" s="13" t="n">
         <v>1.72798724E8</v>
+      </c>
+      <c r="AS81" s="13" t="n">
+        <v>5.7269008E7</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="14" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B82" s="13" t="n">
         <v>1.831801671E9</v>
@@ -11329,11 +11546,14 @@
       </c>
       <c r="AR82" s="13" t="n">
         <v>7.96812179E9</v>
+      </c>
+      <c r="AS82" s="13" t="n">
+        <v>1.2098095144E10</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="14" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B83" s="13" t="n">
         <v>1.3511560438E10</v>
@@ -11460,11 +11680,14 @@
       </c>
       <c r="AR83" s="13" t="n">
         <v>8.31078879E9</v>
+      </c>
+      <c r="AS83" s="13" t="n">
+        <v>4.543218863E9</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="14" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B84" s="13" t="n">
         <v>1.853476187E9</v>
@@ -11591,11 +11814,14 @@
       </c>
       <c r="AR84" s="13" t="n">
         <v>1.583612096E9</v>
+      </c>
+      <c r="AS84" s="13" t="n">
+        <v>9.96919336E8</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="14" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B85" s="13" t="n">
         <v>0.0</v>
@@ -11721,12 +11947,15 @@
         <v>0.0</v>
       </c>
       <c r="AR85" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS85" s="13" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="14" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B86" s="13" t="n">
         <v>0.0</v>
@@ -11852,12 +12081,15 @@
         <v>0.0</v>
       </c>
       <c r="AR86" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS86" s="13" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="14" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B87" s="13" t="n">
         <v>0.0</v>
@@ -11983,12 +12215,15 @@
         <v>0.0</v>
       </c>
       <c r="AR87" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS87" s="13" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="14" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B88" s="13" t="n">
         <v>1.473062725E9</v>
@@ -12115,11 +12350,14 @@
       </c>
       <c r="AR88" s="13" t="n">
         <v>1.011871202E9</v>
+      </c>
+      <c r="AS88" s="13" t="n">
+        <v>1.052501284E9</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="14" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B89" s="13" t="n">
         <v>2.1373709927E10</v>
@@ -12245,12 +12483,15 @@
         <v>0.0</v>
       </c>
       <c r="AR89" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS89" s="13" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="14" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B90" s="13" t="n">
         <v>0.0</v>
@@ -12377,11 +12618,14 @@
       </c>
       <c r="AR90" s="13" t="n">
         <v>5.444361679E9</v>
+      </c>
+      <c r="AS90" s="13" t="n">
+        <v>3.1169E9</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="14" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B91" s="13" t="n">
         <v>7.85459074E8</v>
@@ -12508,11 +12752,14 @@
       </c>
       <c r="AR91" s="13" t="n">
         <v>1.86937359E9</v>
+      </c>
+      <c r="AS91" s="13" t="n">
+        <v>8.5337359E8</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="14" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B92" s="13" t="n">
         <v>0.0</v>
@@ -12638,12 +12885,15 @@
         <v>0.0</v>
       </c>
       <c r="AR92" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS92" s="13" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="14" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B93" s="13" t="n">
         <v>0.0</v>
@@ -12769,12 +13019,15 @@
         <v>0.0</v>
       </c>
       <c r="AR93" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS93" s="13" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="16" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B94" s="13" t="n">
         <v>1.9185E8</v>
@@ -12900,12 +13153,15 @@
         <v>2.685E7</v>
       </c>
       <c r="AR94" s="13" t="n">
+        <v>2.685E7</v>
+      </c>
+      <c r="AS94" s="13" t="n">
         <v>2.685E7</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="14" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B95" s="13" t="n">
         <v>1850000.0</v>
@@ -13031,12 +13287,15 @@
         <v>1850000.0</v>
       </c>
       <c r="AR95" s="13" t="n">
+        <v>1850000.0</v>
+      </c>
+      <c r="AS95" s="13" t="n">
         <v>1850000.0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="14" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B96" s="13" t="n">
         <v>0.0</v>
@@ -13162,12 +13421,15 @@
         <v>0.0</v>
       </c>
       <c r="AR96" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS96" s="13" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="14" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B97" s="13" t="n">
         <v>0.0</v>
@@ -13293,12 +13555,15 @@
         <v>0.0</v>
       </c>
       <c r="AR97" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS97" s="13" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="14" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B98" s="13" t="n">
         <v>0.0</v>
@@ -13424,12 +13689,15 @@
         <v>0.0</v>
       </c>
       <c r="AR98" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS98" s="13" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="14" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B99" s="13" t="n">
         <v>0.0</v>
@@ -13555,12 +13823,15 @@
         <v>0.0</v>
       </c>
       <c r="AR99" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS99" s="13" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="14" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B100" s="13" t="n">
         <v>0.0</v>
@@ -13686,12 +13957,15 @@
         <v>0.0</v>
       </c>
       <c r="AR100" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS100" s="13" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="14" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B101" s="13" t="n">
         <v>1.9E8</v>
@@ -13817,12 +14091,15 @@
         <v>2.5E7</v>
       </c>
       <c r="AR101" s="13" t="n">
+        <v>2.5E7</v>
+      </c>
+      <c r="AS101" s="13" t="n">
         <v>2.5E7</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="14" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B102" s="13" t="n">
         <v>0.0</v>
@@ -13948,12 +14225,15 @@
         <v>0.0</v>
       </c>
       <c r="AR102" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS102" s="13" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="14" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B103" s="13" t="n">
         <v>0.0</v>
@@ -14079,12 +14359,15 @@
         <v>0.0</v>
       </c>
       <c r="AR103" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS103" s="13" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="14" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B104" s="13"/>
       <c r="C104" s="13"/>
@@ -14128,10 +14411,11 @@
       <c r="AP104" s="13"/>
       <c r="AQ104" s="13"/>
       <c r="AR104" s="13"/>
+      <c r="AS104" s="13"/>
     </row>
     <row r="105">
       <c r="A105" s="14" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B105" s="13" t="n">
         <v>0.0</v>
@@ -14257,12 +14541,15 @@
         <v>0.0</v>
       </c>
       <c r="AR105" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS105" s="13" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="14" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B106" s="13" t="n">
         <v>0.0</v>
@@ -14388,12 +14675,15 @@
         <v>0.0</v>
       </c>
       <c r="AR106" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS106" s="13" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="14" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B107" s="13" t="n">
         <v>0.0</v>
@@ -14519,12 +14809,15 @@
         <v>0.0</v>
       </c>
       <c r="AR107" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS107" s="13" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="14" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B108" s="13" t="n">
         <v>0.0</v>
@@ -14650,12 +14943,15 @@
         <v>0.0</v>
       </c>
       <c r="AR108" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS108" s="13" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="16" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B109" s="13" t="n">
         <v>6.5846068912E10</v>
@@ -14782,11 +15078,14 @@
       </c>
       <c r="AR109" s="13" t="n">
         <v>2.10402882632E11</v>
+      </c>
+      <c r="AS109" s="13" t="n">
+        <v>2.38421708374E11</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="16" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B110" s="13" t="n">
         <v>6.5846068912E10</v>
@@ -14913,11 +15212,14 @@
       </c>
       <c r="AR110" s="13" t="n">
         <v>2.10402882632E11</v>
+      </c>
+      <c r="AS110" s="13" t="n">
+        <v>2.38421708374E11</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="14" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B111" s="13" t="n">
         <v>4.760088E10</v>
@@ -15043,12 +15345,15 @@
         <v>1.5269965E11</v>
       </c>
       <c r="AR111" s="13" t="n">
+        <v>1.5269965E11</v>
+      </c>
+      <c r="AS111" s="13" t="n">
         <v>1.5269965E11</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="15" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B112" s="13" t="n">
         <v>4.760088E10</v>
@@ -15174,12 +15479,15 @@
         <v>1.5269965E11</v>
       </c>
       <c r="AR112" s="13" t="n">
+        <v>1.5269965E11</v>
+      </c>
+      <c r="AS112" s="13" t="n">
         <v>1.5269965E11</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="15" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B113" s="13" t="n">
         <v>0.0</v>
@@ -15305,12 +15613,15 @@
         <v>0.0</v>
       </c>
       <c r="AR113" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS113" s="13" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="14" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B114" s="13" t="n">
         <v>3.23060671E8</v>
@@ -15436,12 +15747,15 @@
         <v>3.23060671E8</v>
       </c>
       <c r="AR114" s="13" t="n">
+        <v>3.23060671E8</v>
+      </c>
+      <c r="AS114" s="13" t="n">
         <v>3.23060671E8</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="14" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B115" s="13" t="n">
         <v>0.0</v>
@@ -15567,12 +15881,15 @@
         <v>0.0</v>
       </c>
       <c r="AR115" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS115" s="13" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="14" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B116" s="13" t="n">
         <v>0.0</v>
@@ -15698,12 +16015,15 @@
         <v>0.0</v>
       </c>
       <c r="AR116" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS116" s="13" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="14" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B117" s="13" t="n">
         <v>0.0</v>
@@ -15829,12 +16149,15 @@
         <v>0.0</v>
       </c>
       <c r="AR117" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS117" s="13" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="14" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B118" s="13" t="n">
         <v>0.0</v>
@@ -15960,12 +16283,15 @@
         <v>0.0</v>
       </c>
       <c r="AR118" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS118" s="13" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="14" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B119" s="13" t="n">
         <v>0.0</v>
@@ -16091,12 +16417,15 @@
         <v>0.0</v>
       </c>
       <c r="AR119" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS119" s="13" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="14" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B120" s="13" t="n">
         <v>1.362252276E9</v>
@@ -16222,12 +16551,15 @@
         <v>3.1002773233E10</v>
       </c>
       <c r="AR120" s="13" t="n">
+        <v>3.1002773233E10</v>
+      </c>
+      <c r="AS120" s="13" t="n">
         <v>3.1002773233E10</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="14" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B121" s="13" t="n">
         <v>0.0</v>
@@ -16353,12 +16685,15 @@
         <v>0.0</v>
       </c>
       <c r="AR121" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS121" s="13" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="14" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B122" s="13" t="n">
         <v>0.0</v>
@@ -16484,12 +16819,15 @@
         <v>0.0</v>
       </c>
       <c r="AR122" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS122" s="13" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="14" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B123" s="13" t="n">
         <v>0.0</v>
@@ -16615,12 +16953,15 @@
         <v>0.0</v>
       </c>
       <c r="AR123" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS123" s="13" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="14" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B124" s="13" t="n">
         <v>1.6559875965E10</v>
@@ -16747,11 +17088,14 @@
       </c>
       <c r="AR124" s="13" t="n">
         <v>2.6377398728E10</v>
+      </c>
+      <c r="AS124" s="13" t="n">
+        <v>5.439622447E10</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="15" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B125" s="13" t="n">
         <v>1.878786815E9</v>
@@ -16877,12 +17221,15 @@
         <v>-3.985843509E9</v>
       </c>
       <c r="AR125" s="13" t="n">
+        <v>3.985843509E9</v>
+      </c>
+      <c r="AS125" s="13" t="n">
         <v>3.985843509E9</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="15" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B126" s="13" t="n">
         <v>1.468108915E10</v>
@@ -17009,11 +17356,14 @@
       </c>
       <c r="AR126" s="13" t="n">
         <v>2.2391555219E10</v>
+      </c>
+      <c r="AS126" s="13" t="n">
+        <v>5.0410380961E10</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="14" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B127" s="13" t="n">
         <v>0.0</v>
@@ -17139,12 +17489,15 @@
         <v>0.0</v>
       </c>
       <c r="AR127" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS127" s="13" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="16" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B128" s="13" t="n">
         <v>0.0</v>
@@ -17270,12 +17623,15 @@
         <v>0.0</v>
       </c>
       <c r="AR128" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS128" s="13" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="16" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B129" s="13" t="n">
         <v>0.0</v>
@@ -17401,12 +17757,15 @@
         <v>0.0</v>
       </c>
       <c r="AR129" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS129" s="13" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="14" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B130" s="13" t="n">
         <v>0.0</v>
@@ -17532,12 +17891,15 @@
         <v>0.0</v>
       </c>
       <c r="AR130" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS130" s="13" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="14" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B131" s="13" t="n">
         <v>0.0</v>
@@ -17663,12 +18025,15 @@
         <v>0.0</v>
       </c>
       <c r="AR131" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS131" s="13" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="16" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B132" s="13" t="n">
         <v>0.0</v>
@@ -17794,12 +18159,15 @@
         <v>0.0</v>
       </c>
       <c r="AR132" s="13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS132" s="13" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="16" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B133" s="13" t="n">
         <v>1.19596969434E11</v>
@@ -17926,6 +18294,9 @@
       </c>
       <c r="AR133" s="13" t="n">
         <v>2.47938440608E11</v>
+      </c>
+      <c r="AS133" s="13" t="n">
+        <v>2.77891157446E11</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
@@ -17966,7 +18337,7 @@
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B10:I10"/>
-    <mergeCell ref="K10:AR10"/>
+    <mergeCell ref="K10:AS10"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A139" r:id="rId1" display="https://www.vietcap.com.vn/" xr:uid="{BC241E6B-908A-9A48-BD72-61B8A652B0D4}"/>
@@ -17980,7 +18351,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CC84FBE-342B-144C-9AE6-BA977881A664}">
-  <dimension ref="A1:AR44"/>
+  <dimension ref="A1:AS44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
@@ -18032,6 +18403,7 @@
     <col min="42" max="42" width="17.453125" customWidth="true" bestFit="true"/>
     <col min="43" max="43" width="17.453125" customWidth="true" bestFit="true"/>
     <col min="44" max="44" width="17.453125" customWidth="true" bestFit="true"/>
+    <col min="45" max="45" width="17.453125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="17.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -18207,10 +18579,13 @@
       <c r="AR11" s="6" t="s">
         <v>49</v>
       </c>
+      <c r="AS11" s="6" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="20" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B12" s="17" t="n">
         <v>2.72608171585E11</v>
@@ -18337,11 +18712,14 @@
       </c>
       <c r="AR12" s="17" t="n">
         <v>1.66019486737E11</v>
+      </c>
+      <c r="AS12" s="17" t="n">
+        <v>1.8128677524E11</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="20" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B13" s="17" t="n">
         <v>-2.31489E8</v>
@@ -18467,12 +18845,15 @@
         <v>0.0</v>
       </c>
       <c r="AR13" s="17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS13" s="17" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="20" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B14" s="17" t="n">
         <v>2.72376682585E11</v>
@@ -18599,11 +18980,14 @@
       </c>
       <c r="AR14" s="17" t="n">
         <v>1.66019486737E11</v>
+      </c>
+      <c r="AS14" s="17" t="n">
+        <v>1.8128677524E11</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="20" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B15" s="17" t="n">
         <v>-2.25418690783E11</v>
@@ -18730,11 +19114,14 @@
       </c>
       <c r="AR15" s="17" t="n">
         <v>-1.31314532972E11</v>
+      </c>
+      <c r="AS15" s="17" t="n">
+        <v>-1.38397549503E11</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="20" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B16" s="17" t="n">
         <v>4.6957991802E10</v>
@@ -18861,11 +19248,14 @@
       </c>
       <c r="AR16" s="17" t="n">
         <v>3.4704953765E10</v>
+      </c>
+      <c r="AS16" s="17" t="n">
+        <v>4.2889225737E10</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="20" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B17" s="17" t="n">
         <v>1.093040018E9</v>
@@ -18992,11 +19382,14 @@
       </c>
       <c r="AR17" s="17" t="n">
         <v>2.3202369E9</v>
+      </c>
+      <c r="AS17" s="17" t="n">
+        <v>2.764509196E9</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="20" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B18" s="17" t="n">
         <v>-2.20986408E8</v>
@@ -19123,11 +19516,14 @@
       </c>
       <c r="AR18" s="17" t="n">
         <v>-1.96323727E8</v>
+      </c>
+      <c r="AS18" s="17" t="n">
+        <v>-2.1040361E7</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="18" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B19" s="17" t="n">
         <v>-1.56857621E8</v>
@@ -19253,12 +19649,15 @@
         <v>0.0</v>
       </c>
       <c r="AR19" s="17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS19" s="17" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="20" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B20" s="17" t="n">
         <v>0.0</v>
@@ -19384,12 +19783,15 @@
         <v>0.0</v>
       </c>
       <c r="AR20" s="17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS20" s="17" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="20" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B21" s="17" t="n">
         <v>-7.965809102E9</v>
@@ -19516,11 +19918,14 @@
       </c>
       <c r="AR21" s="17" t="n">
         <v>-9.019690812E9</v>
+      </c>
+      <c r="AS21" s="17" t="n">
+        <v>-7.04304259E9</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="20" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B22" s="17" t="n">
         <v>-1.4053840904E10</v>
@@ -19647,11 +20052,14 @@
       </c>
       <c r="AR22" s="17" t="n">
         <v>-6.8044537E9</v>
+      </c>
+      <c r="AS22" s="17" t="n">
+        <v>-4.609945262E9</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="20" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B23" s="17" t="n">
         <v>2.5810395406E10</v>
@@ -19778,11 +20186,14 @@
       </c>
       <c r="AR23" s="17" t="n">
         <v>2.1004722426E10</v>
+      </c>
+      <c r="AS23" s="17" t="n">
+        <v>3.397970672E10</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="20" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B24" s="17" t="n">
         <v>-1.457896725E9</v>
@@ -19909,11 +20320,14 @@
       </c>
       <c r="AR24" s="17" t="n">
         <v>-4.2957429E7</v>
+      </c>
+      <c r="AS24" s="17" t="n">
+        <v>-6.0E7</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="18" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B25" s="17" t="n">
         <v>0.0</v>
@@ -20039,12 +20453,15 @@
         <v>0.0</v>
       </c>
       <c r="AR25" s="17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS25" s="17" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="18" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B26" s="17" t="n">
         <v>-1.457896725E9</v>
@@ -20171,11 +20588,14 @@
       </c>
       <c r="AR26" s="17" t="n">
         <v>-4.2957429E7</v>
+      </c>
+      <c r="AS26" s="17" t="n">
+        <v>-6.0E7</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="20" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B27" s="17" t="n">
         <v>0.0</v>
@@ -20301,12 +20721,15 @@
         <v>0.0</v>
       </c>
       <c r="AR27" s="17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS27" s="17" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="20" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B28" s="17" t="n">
         <v>2.4352498681E10</v>
@@ -20433,11 +20856,14 @@
       </c>
       <c r="AR28" s="17" t="n">
         <v>2.0961764997E10</v>
+      </c>
+      <c r="AS28" s="17" t="n">
+        <v>3.391970672E10</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="20" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B29" s="17" t="n">
         <v>-9.671409531E9</v>
@@ -20564,11 +20990,14 @@
       </c>
       <c r="AR29" s="17" t="n">
         <v>-4.06175222E9</v>
+      </c>
+      <c r="AS29" s="17" t="n">
+        <v>-6.535456929E9</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="18" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B30" s="17" t="n">
         <v>-9.671409531E9</v>
@@ -20695,11 +21124,14 @@
       </c>
       <c r="AR30" s="17" t="n">
         <v>-4.06175222E9</v>
+      </c>
+      <c r="AS30" s="17" t="n">
+        <v>-6.535456929E9</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="18" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B31" s="17" t="n">
         <v>0.0</v>
@@ -20825,12 +21257,15 @@
         <v>0.0</v>
       </c>
       <c r="AR31" s="17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS31" s="17" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="20" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B32" s="17" t="n">
         <v>1.468108915E10</v>
@@ -20957,11 +21392,14 @@
       </c>
       <c r="AR32" s="17" t="n">
         <v>1.6900012777E10</v>
+      </c>
+      <c r="AS32" s="17" t="n">
+        <v>2.7384249791E10</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="20" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B33" s="17" t="n">
         <v>0.0</v>
@@ -21087,12 +21525,15 @@
         <v>0.0</v>
       </c>
       <c r="AR33" s="17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS33" s="17" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="20" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B34" s="17" t="n">
         <v>1.468108915E10</v>
@@ -21219,11 +21660,14 @@
       </c>
       <c r="AR34" s="17" t="n">
         <v>1.6900012777E10</v>
+      </c>
+      <c r="AS34" s="17" t="n">
+        <v>2.7384249791E10</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="20" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B35" s="17" t="n">
         <v>2832.0</v>
@@ -21350,11 +21794,14 @@
       </c>
       <c r="AR35" s="17" t="n">
         <v>1051.0</v>
+      </c>
+      <c r="AS35" s="17" t="n">
+        <v>1704.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="20" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B36" s="17" t="n">
         <v>0.0</v>
@@ -21480,6 +21927,9 @@
         <v>0.0</v>
       </c>
       <c r="AR36" s="17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AS36" s="17" t="n">
         <v>0.0</v>
       </c>
     </row>
@@ -21521,7 +21971,7 @@
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B10:I10"/>
-    <mergeCell ref="K10:AR10"/>
+    <mergeCell ref="K10:AS10"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A42" r:id="rId1" display="https://www.vietcap.com.vn/" xr:uid="{2E2B9333-D71C-0347-A9BA-41353A177D7A}"/>
@@ -21535,7 +21985,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDF32B87-0276-EF4E-963C-ED48B34C3BF9}">
-  <dimension ref="A1:AQ60"/>
+  <dimension ref="A1:AR60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
@@ -21586,6 +22036,7 @@
     <col min="41" max="41" width="16.28515625" customWidth="true" bestFit="true"/>
     <col min="42" max="42" width="16.28515625" customWidth="true" bestFit="true"/>
     <col min="43" max="43" width="16.28515625" customWidth="true" bestFit="true"/>
+    <col min="44" max="44" width="17.453125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="17.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -21758,10 +22209,13 @@
       <c r="AQ11" s="6" t="s">
         <v>49</v>
       </c>
+      <c r="AR11" s="6" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="24" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B12" s="21" t="n">
         <v>2.4352498681E10</v>
@@ -21885,11 +22339,14 @@
       </c>
       <c r="AQ12" s="21" t="n">
         <v>2.0961764997E10</v>
+      </c>
+      <c r="AR12" s="21" t="n">
+        <v>3.4554282671E10</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="24" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B13" s="21" t="n">
         <v>8.765071457E9</v>
@@ -22013,11 +22470,14 @@
       </c>
       <c r="AQ13" s="21" t="n">
         <v>2.542387585E9</v>
+      </c>
+      <c r="AR13" s="21" t="n">
+        <v>2.502112504E9</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="24" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B14" s="21" t="n">
         <v>0.0</v>
@@ -22140,12 +22600,15 @@
         <v>0.0</v>
       </c>
       <c r="AQ14" s="21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR14" s="21" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="24" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B15" s="21" t="n">
         <v>-1.823166537E9</v>
@@ -22269,11 +22732,14 @@
       </c>
       <c r="AQ15" s="21" t="n">
         <v>5.21346091E8</v>
+      </c>
+      <c r="AR15" s="21" t="n">
+        <v>-2.327461679E9</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="24" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B16" s="21" t="n">
         <v>4206779.0</v>
@@ -22397,11 +22863,14 @@
       </c>
       <c r="AQ16" s="21" t="n">
         <v>-5.962333861E9</v>
+      </c>
+      <c r="AR16" s="21" t="n">
+        <v>-1.000450151E9</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="24" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B17" s="21" t="n">
         <v>0.0</v>
@@ -22524,12 +22993,15 @@
         <v>0.0</v>
       </c>
       <c r="AQ17" s="21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR17" s="21" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="24" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B18" s="21" t="n">
         <v>-1.026949163E9</v>
@@ -22653,11 +23125,14 @@
       </c>
       <c r="AQ18" s="21" t="n">
         <v>6.050285E8</v>
+      </c>
+      <c r="AR18" s="21" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="24" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B19" s="21" t="n">
         <v>1.56857621E8</v>
@@ -22780,12 +23255,15 @@
         <v>0.0</v>
       </c>
       <c r="AQ19" s="21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR19" s="21" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="24" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B20" s="21" t="n">
         <v>0.0</v>
@@ -22908,12 +23386,15 @@
         <v>0.0</v>
       </c>
       <c r="AQ20" s="21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR20" s="21" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="24" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B21" s="21" t="n">
         <v>0.0</v>
@@ -23036,12 +23517,15 @@
         <v>0.0</v>
       </c>
       <c r="AQ21" s="21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR21" s="21" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="24" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B22" s="21" t="n">
         <v>-1.4223208465E10</v>
@@ -23165,11 +23649,14 @@
       </c>
       <c r="AQ22" s="21" t="n">
         <v>8.4316484119E10</v>
+      </c>
+      <c r="AR22" s="21" t="n">
+        <v>6.0517095219E10</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="22" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B23" s="21" t="n">
         <v>3.0428518838E10</v>
@@ -23293,11 +23780,14 @@
       </c>
       <c r="AQ23" s="21" t="n">
         <v>1.8668193312E10</v>
+      </c>
+      <c r="AR23" s="21" t="n">
+        <v>3.3728483345E10</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="22" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B24" s="21" t="n">
         <v>8.51904649E8</v>
@@ -23421,11 +23911,14 @@
       </c>
       <c r="AQ24" s="21" t="n">
         <v>7.078877748E9</v>
+      </c>
+      <c r="AR24" s="21" t="n">
+        <v>-5.0069474844E10</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="22" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B25" s="21" t="n">
         <v>-3.263373192E10</v>
@@ -23549,11 +24042,14 @@
       </c>
       <c r="AQ25" s="21" t="n">
         <v>6.5297505164E10</v>
+      </c>
+      <c r="AR25" s="21" t="n">
+        <v>7.6007432282E10</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="22" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B26" s="21" t="n">
         <v>2.67514761E8</v>
@@ -23677,11 +24173,14 @@
       </c>
       <c r="AQ26" s="21" t="n">
         <v>-5.128607406E9</v>
+      </c>
+      <c r="AR26" s="21" t="n">
+        <v>5.236722693E9</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="22" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B27" s="21" t="n">
         <v>-4.31041E7</v>
@@ -23805,11 +24304,14 @@
       </c>
       <c r="AQ27" s="21" t="n">
         <v>-5.8112927E7</v>
+      </c>
+      <c r="AR27" s="21" t="n">
+        <v>7.95703509E8</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="22" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B28" s="21" t="n">
         <v>0.0</v>
@@ -23932,12 +24434,15 @@
         <v>0.0</v>
       </c>
       <c r="AQ28" s="21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR28" s="21" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="22" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B29" s="21" t="n">
         <v>-1.28915858E8</v>
@@ -24060,12 +24565,15 @@
         <v>0.0</v>
       </c>
       <c r="AQ29" s="21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR29" s="21" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="22" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B30" s="21" t="n">
         <v>-1.0230799835E10</v>
@@ -24189,11 +24697,14 @@
       </c>
       <c r="AQ30" s="21" t="n">
         <v>2390228.0</v>
+      </c>
+      <c r="AR30" s="21" t="n">
+        <v>-4.165771766E9</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="22" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B31" s="21" t="n">
         <v>0.0</v>
@@ -24316,12 +24827,15 @@
         <v>0.0</v>
       </c>
       <c r="AQ31" s="21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR31" s="21" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="22" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B32" s="21" t="n">
         <v>-2.734595E9</v>
@@ -24445,11 +24959,14 @@
       </c>
       <c r="AQ32" s="21" t="n">
         <v>-1.543762E9</v>
+      </c>
+      <c r="AR32" s="21" t="n">
+        <v>-1.016E9</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="24" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B33" s="21" t="n">
         <v>-9.626008206E9</v>
@@ -24573,11 +25090,14 @@
       </c>
       <c r="AQ33" s="21" t="n">
         <v>-6.9594357953E10</v>
+      </c>
+      <c r="AR33" s="21" t="n">
+        <v>-5.8756282316E10</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="22" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B34" s="21" t="n">
         <v>-1.0652957369E10</v>
@@ -24701,11 +25221,14 @@
       </c>
       <c r="AQ34" s="21" t="n">
         <v>-1.33839656E8</v>
+      </c>
+      <c r="AR34" s="21" t="n">
+        <v>-4.99301E8</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="22" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B35" s="21" t="n">
         <v>0.0</v>
@@ -24828,12 +25351,15 @@
         <v>0.0</v>
       </c>
       <c r="AQ35" s="21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR35" s="21" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="22" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B36" s="21" t="n">
         <v>0.0</v>
@@ -24957,11 +25483,14 @@
       </c>
       <c r="AQ36" s="21" t="n">
         <v>0.0</v>
+      </c>
+      <c r="AR36" s="21" t="n">
+        <v>-1.3E11</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="22" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B37" s="21" t="n">
         <v>0.0</v>
@@ -25085,11 +25614,14 @@
       </c>
       <c r="AQ37" s="21" t="n">
         <v>-7.0E10</v>
+      </c>
+      <c r="AR37" s="21" t="n">
+        <v>7.0E10</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="22" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B38" s="21" t="n">
         <v>0.0</v>
@@ -25212,12 +25744,15 @@
         <v>0.0</v>
       </c>
       <c r="AQ38" s="21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR38" s="21" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="22" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B39" s="21" t="n">
         <v>0.0</v>
@@ -25340,12 +25875,15 @@
         <v>0.0</v>
       </c>
       <c r="AQ39" s="21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR39" s="21" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="22" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B40" s="21" t="n">
         <v>1.026949163E9</v>
@@ -25469,11 +26007,14 @@
       </c>
       <c r="AQ40" s="21" t="n">
         <v>5.39481703E8</v>
+      </c>
+      <c r="AR40" s="21" t="n">
+        <v>1.743018684E9</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="24" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B41" s="21" t="n">
         <v>2.434337066E9</v>
@@ -25597,11 +26138,14 @@
       </c>
       <c r="AQ41" s="21" t="n">
         <v>-5.1045126985E10</v>
+      </c>
+      <c r="AR41" s="21" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="22" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B42" s="21" t="n">
         <v>0.0</v>
@@ -25724,12 +26268,15 @@
         <v>0.0</v>
       </c>
       <c r="AQ42" s="21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR42" s="21" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="22" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B43" s="21" t="n">
         <v>0.0</v>
@@ -25852,12 +26399,15 @@
         <v>0.0</v>
       </c>
       <c r="AQ43" s="21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR43" s="21" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="22" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B44" s="21" t="n">
         <v>2.6229661779E10</v>
@@ -25980,12 +26530,15 @@
         <v>0.0</v>
       </c>
       <c r="AQ44" s="21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR44" s="21" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="22" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B45" s="21" t="n">
         <v>-7.611025513E9</v>
@@ -26108,12 +26661,15 @@
         <v>0.0</v>
       </c>
       <c r="AQ45" s="21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR45" s="21" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="22" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B46" s="21" t="n">
         <v>0.0</v>
@@ -26236,12 +26792,15 @@
         <v>0.0</v>
       </c>
       <c r="AQ46" s="21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR46" s="21" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="22" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B47" s="21" t="n">
         <v>-1.61842992E10</v>
@@ -26365,11 +26924,14 @@
       </c>
       <c r="AQ47" s="21" t="n">
         <v>-5.1045126985E10</v>
+      </c>
+      <c r="AR47" s="21" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="22" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B48" s="21" t="n">
         <v>0.0</v>
@@ -26492,12 +27054,15 @@
         <v>0.0</v>
       </c>
       <c r="AQ48" s="21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AR48" s="21" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="24" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B49" s="21" t="n">
         <v>-2.1414879605E10</v>
@@ -26621,11 +27186,14 @@
       </c>
       <c r="AQ49" s="21" t="n">
         <v>-3.6323000819E10</v>
+      </c>
+      <c r="AR49" s="21" t="n">
+        <v>1.760812903E9</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="24" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B50" s="21" t="n">
         <v>3.245526523E10</v>
@@ -26749,11 +27317,14 @@
       </c>
       <c r="AQ50" s="21" t="n">
         <v>4.4192404159E10</v>
+      </c>
+      <c r="AR50" s="21" t="n">
+        <v>7.867847284E9</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="24" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B51" s="21" t="n">
         <v>-1225961.0</v>
@@ -26877,11 +27448,14 @@
       </c>
       <c r="AQ51" s="21" t="n">
         <v>-1556056.0</v>
+      </c>
+      <c r="AR51" s="21" t="n">
+        <v>-1.7333912E7</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="24" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B52" s="21" t="n">
         <v>1.1039159664E10</v>
@@ -27005,6 +27579,9 @@
       </c>
       <c r="AQ52" s="21" t="n">
         <v>7.867847284E9</v>
+      </c>
+      <c r="AR52" s="21" t="n">
+        <v>9.611326275E9</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
@@ -27045,7 +27622,7 @@
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B10:H10"/>
-    <mergeCell ref="J10:AQ10"/>
+    <mergeCell ref="J10:AR10"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A58" r:id="rId1" display="https://www.vietcap.com.vn/" xr:uid="{2404128C-51EF-8E44-9BE0-4A8D207DD5D8}"/>
@@ -27059,7 +27636,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ACDB1F9-64B2-F64B-91A6-B0AAFF7D49C4}">
-  <dimension ref="A1:AJ176"/>
+  <dimension ref="A1:AK176"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
@@ -27103,6 +27680,7 @@
     <col min="34" max="34" width="16.7890625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="16.7890625" customWidth="true" bestFit="true"/>
     <col min="36" max="36" width="17.453125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="16.7890625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="17.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -27254,10 +27832,13 @@
       <c r="AJ11" s="6" t="s">
         <v>49</v>
       </c>
+      <c r="AK11" s="6" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="28" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B12" s="25" t="n">
         <v>1.1039159664E10</v>
@@ -27360,11 +27941,14 @@
       </c>
       <c r="AJ12" s="25" t="n">
         <v>7.867847284E9</v>
+      </c>
+      <c r="AK12" s="25" t="n">
+        <v>9.611326275E9</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="26" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B13" s="25" t="n">
         <v>9.70110168E8</v>
@@ -27467,11 +28051,14 @@
       </c>
       <c r="AJ13" s="25" t="n">
         <v>1.48229128E9</v>
+      </c>
+      <c r="AK13" s="25" t="n">
+        <v>1.150300778E9</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="26" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B14" s="25" t="n">
         <v>7.069049496E9</v>
@@ -27574,11 +28161,14 @@
       </c>
       <c r="AJ14" s="25" t="n">
         <v>6.385556004E9</v>
+      </c>
+      <c r="AK14" s="25" t="n">
+        <v>8.461025497E9</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="26" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B15" s="25" t="n">
         <v>0.0</v>
@@ -27680,12 +28270,15 @@
         <v>0.0</v>
       </c>
       <c r="AJ15" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK15" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="26" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B16" s="25" t="n">
         <v>3.0E9</v>
@@ -27787,12 +28380,15 @@
         <v>3.5E10</v>
       </c>
       <c r="AJ16" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK16" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="26" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B17" s="25" t="n">
         <v>0.0</v>
@@ -27894,12 +28490,15 @@
         <v>0.0</v>
       </c>
       <c r="AJ17" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK17" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="28" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B18" s="25" t="n">
         <v>0.0</v>
@@ -28001,12 +28600,15 @@
         <v>0.0</v>
       </c>
       <c r="AJ18" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK18" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="26" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B19" s="25" t="n">
         <v>0.0</v>
@@ -28108,12 +28710,15 @@
         <v>0.0</v>
       </c>
       <c r="AJ19" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK19" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="26" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B20" s="25" t="n">
         <v>0.0</v>
@@ -28215,12 +28820,15 @@
         <v>0.0</v>
       </c>
       <c r="AJ20" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK20" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="26" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B21" s="25" t="n">
         <v>0.0</v>
@@ -28322,12 +28930,15 @@
         <v>0.0</v>
       </c>
       <c r="AJ21" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK21" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="26" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B22" s="25" t="n">
         <v>0.0</v>
@@ -28429,12 +29040,15 @@
         <v>0.0</v>
       </c>
       <c r="AJ22" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK22" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="26" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B23" s="25" t="n">
         <v>0.0</v>
@@ -28536,12 +29150,15 @@
         <v>0.0</v>
       </c>
       <c r="AJ23" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK23" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="28" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B24" s="25" t="n">
         <v>1.378744976E9</v>
@@ -28644,11 +29261,14 @@
       </c>
       <c r="AJ24" s="25" t="n">
         <v>2.71850857E9</v>
+      </c>
+      <c r="AK24" s="25" t="n">
+        <v>3.83504136E9</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="26" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B25" s="25" t="n">
         <v>0.0</v>
@@ -28750,12 +29370,15 @@
         <v>0.0</v>
       </c>
       <c r="AJ25" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK25" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="26" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B26" s="25" t="n">
         <v>0.0</v>
@@ -28857,12 +29480,15 @@
         <v>0.0</v>
       </c>
       <c r="AJ26" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK26" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="26" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B27" s="25" t="n">
         <v>0.0</v>
@@ -28964,12 +29590,15 @@
         <v>0.0</v>
       </c>
       <c r="AJ27" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK27" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="26" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B28" s="25" t="n">
         <v>1.378744976E9</v>
@@ -29072,11 +29701,14 @@
       </c>
       <c r="AJ28" s="25" t="n">
         <v>2.71850857E9</v>
+      </c>
+      <c r="AK28" s="25" t="n">
+        <v>3.83504136E9</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="28" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B29" s="25" t="n">
         <v>7.3489275268E10</v>
@@ -29179,11 +29811,14 @@
       </c>
       <c r="AJ29" s="25" t="n">
         <v>9.1883744875E10</v>
+      </c>
+      <c r="AK29" s="25" t="n">
+        <v>1.5876312593E10</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="26" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B30" s="25" t="n">
         <v>0.0</v>
@@ -29285,12 +29920,15 @@
         <v>0.0</v>
       </c>
       <c r="AJ30" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK30" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="26" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B31" s="25" t="n">
         <v>1.1232597953E10</v>
@@ -29393,11 +30031,14 @@
       </c>
       <c r="AJ31" s="25" t="n">
         <v>7.000683799E9</v>
+      </c>
+      <c r="AK31" s="25" t="n">
+        <v>9.988105335E9</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="26" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B32" s="25" t="n">
         <v>0.0</v>
@@ -29499,12 +30140,15 @@
         <v>0.0</v>
       </c>
       <c r="AJ32" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK32" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="26" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B33" s="25" t="n">
         <v>1.966561304E9</v>
@@ -29607,11 +30251,14 @@
       </c>
       <c r="AJ33" s="25" t="n">
         <v>2.548452187E9</v>
+      </c>
+      <c r="AK33" s="25" t="n">
+        <v>2.640851571E9</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="26" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B34" s="25" t="n">
         <v>6.0290116011E10</v>
@@ -29714,11 +30361,14 @@
       </c>
       <c r="AJ34" s="25" t="n">
         <v>8.2334608889E10</v>
+      </c>
+      <c r="AK34" s="25" t="n">
+        <v>3.247355687E9</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="26" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B35" s="25" t="n">
         <v>0.0</v>
@@ -29820,12 +30470,15 @@
         <v>0.0</v>
       </c>
       <c r="AJ35" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK35" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="26" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B36" s="25" t="n">
         <v>0.0</v>
@@ -29927,12 +30580,15 @@
         <v>0.0</v>
       </c>
       <c r="AJ36" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK36" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="26" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B37" s="25" t="n">
         <v>0.0</v>
@@ -30034,12 +30690,15 @@
         <v>0.0</v>
       </c>
       <c r="AJ37" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK37" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="26" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B38" s="25" t="n">
         <v>0.0</v>
@@ -30141,12 +30800,15 @@
         <v>0.0</v>
       </c>
       <c r="AJ38" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK38" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="28" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B39" s="25" t="n">
         <v>0.0</v>
@@ -30248,12 +30910,15 @@
         <v>0.0</v>
       </c>
       <c r="AJ39" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK39" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="26" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B40" s="25" t="n">
         <v>0.0</v>
@@ -30355,12 +31020,15 @@
         <v>0.0</v>
       </c>
       <c r="AJ40" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK40" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="26" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B41" s="25" t="n">
         <v>0.0</v>
@@ -30462,12 +31130,15 @@
         <v>0.0</v>
       </c>
       <c r="AJ41" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK41" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="26" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B42" s="25" t="n">
         <v>0.0</v>
@@ -30569,12 +31240,15 @@
         <v>0.0</v>
       </c>
       <c r="AJ42" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK42" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="26" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B43" s="25" t="n">
         <v>0.0</v>
@@ -30676,12 +31350,15 @@
         <v>0.0</v>
       </c>
       <c r="AJ43" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK43" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="28" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B44" s="25" t="n">
         <v>0.0</v>
@@ -30783,12 +31460,15 @@
         <v>0.0</v>
       </c>
       <c r="AJ44" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK44" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="26" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B45" s="25" t="n">
         <v>0.0</v>
@@ -30890,12 +31570,15 @@
         <v>0.0</v>
       </c>
       <c r="AJ45" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK45" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="26" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B46" s="25" t="n">
         <v>0.0</v>
@@ -30997,12 +31680,15 @@
         <v>0.0</v>
       </c>
       <c r="AJ46" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK46" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="26" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B47" s="25" t="n">
         <v>0.0</v>
@@ -31104,12 +31790,15 @@
         <v>0.0</v>
       </c>
       <c r="AJ47" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK47" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="26" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B48" s="25" t="n">
         <v>0.0</v>
@@ -31211,12 +31900,15 @@
         <v>0.0</v>
       </c>
       <c r="AJ48" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK48" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="28" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B49" s="25" t="n">
         <v>1.64931209008E11</v>
@@ -31319,11 +32011,14 @@
       </c>
       <c r="AJ49" s="25" t="n">
         <v>1.76547271005E11</v>
+      </c>
+      <c r="AK49" s="25" t="n">
+        <v>1.76590419876E11</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="26" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B50" s="25" t="n">
         <v>1.55599267216E11</v>
@@ -31425,12 +32120,15 @@
         <v>1.84239752127E11</v>
       </c>
       <c r="AJ50" s="25" t="n">
+        <v>1.84239752127E11</v>
+      </c>
+      <c r="AK50" s="25" t="n">
         <v>1.84239752127E11</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="26" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B51" s="25" t="n">
         <v>9.924299074E9</v>
@@ -31533,11 +32231,14 @@
       </c>
       <c r="AJ51" s="25" t="n">
         <v>3.770614488E9</v>
+      </c>
+      <c r="AK51" s="25" t="n">
+        <v>4.269915488E9</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="26" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B52" s="25" t="n">
         <v>-5.92357282E8</v>
@@ -31640,11 +32341,14 @@
       </c>
       <c r="AJ52" s="25" t="n">
         <v>-1.146309561E10</v>
+      </c>
+      <c r="AK52" s="25" t="n">
+        <v>-1.1919247739E10</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="28" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B53" s="25" t="n">
         <v>1.36896558244E11</v>
@@ -31747,11 +32451,14 @@
       </c>
       <c r="AJ53" s="25" t="n">
         <v>1.59097280404E11</v>
+      </c>
+      <c r="AK53" s="25" t="n">
+        <v>1.61134649292E11</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="26" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B54" s="25" t="n">
         <v>1.28723844069E11</v>
@@ -31853,12 +32560,15 @@
         <v>1.62765772178E11</v>
       </c>
       <c r="AJ54" s="25" t="n">
+        <v>1.62765772178E11</v>
+      </c>
+      <c r="AK54" s="25" t="n">
         <v>1.62765772178E11</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="26" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B55" s="25" t="n">
         <v>8.765071457E9</v>
@@ -31961,11 +32671,14 @@
       </c>
       <c r="AJ55" s="25" t="n">
         <v>7.751646407E9</v>
+      </c>
+      <c r="AK55" s="25" t="n">
+        <v>1.0253758911E10</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="26" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B56" s="25" t="n">
         <v>-5.92357282E8</v>
@@ -32068,11 +32781,14 @@
       </c>
       <c r="AJ56" s="25" t="n">
         <v>-1.1420138181E10</v>
+      </c>
+      <c r="AK56" s="25" t="n">
+        <v>-1.1884881797E10</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="28" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B57" s="25" t="n">
         <v>0.0</v>
@@ -32174,12 +32890,15 @@
         <v>0.0</v>
       </c>
       <c r="AJ57" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK57" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="26" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B58" s="25" t="n">
         <v>0.0</v>
@@ -32281,12 +33000,15 @@
         <v>0.0</v>
       </c>
       <c r="AJ58" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK58" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="26" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B59" s="25" t="n">
         <v>0.0</v>
@@ -32388,12 +33110,15 @@
         <v>0.0</v>
       </c>
       <c r="AJ59" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK59" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="26" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B60" s="25" t="n">
         <v>0.0</v>
@@ -32495,12 +33220,15 @@
         <v>0.0</v>
       </c>
       <c r="AJ60" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK60" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="28" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B61" s="25" t="n">
         <v>0.0</v>
@@ -32602,12 +33330,15 @@
         <v>0.0</v>
       </c>
       <c r="AJ61" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK61" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="26" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B62" s="25" t="n">
         <v>0.0</v>
@@ -32709,12 +33440,15 @@
         <v>0.0</v>
       </c>
       <c r="AJ62" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK62" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="26" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B63" s="25" t="n">
         <v>0.0</v>
@@ -32816,12 +33550,15 @@
         <v>0.0</v>
       </c>
       <c r="AJ63" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK63" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="26" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B64" s="25" t="n">
         <v>0.0</v>
@@ -32923,12 +33660,15 @@
         <v>0.0</v>
       </c>
       <c r="AJ64" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK64" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="28" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B65" s="25" t="n">
         <v>7.4999999E7</v>
@@ -33031,11 +33771,14 @@
       </c>
       <c r="AJ65" s="25" t="n">
         <v>0.0</v>
+      </c>
+      <c r="AK65" s="25" t="n">
+        <v>1.71E8</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="26" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B66" s="25" t="n">
         <v>7.4999999E7</v>
@@ -33138,11 +33881,14 @@
       </c>
       <c r="AJ66" s="25" t="n">
         <v>0.0</v>
+      </c>
+      <c r="AK66" s="25" t="n">
+        <v>1.71E8</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="26" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B67" s="25" t="n">
         <v>0.0</v>
@@ -33244,12 +33990,15 @@
         <v>0.0</v>
       </c>
       <c r="AJ67" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK67" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="26" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B68" s="25" t="n">
         <v>0.0</v>
@@ -33351,12 +34100,15 @@
         <v>0.0</v>
       </c>
       <c r="AJ68" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK68" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="28" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B69" s="25" t="n">
         <v>7.5E7</v>
@@ -33459,11 +34211,14 @@
       </c>
       <c r="AJ69" s="25" t="n">
         <v>0.0</v>
+      </c>
+      <c r="AK69" s="25" t="n">
+        <v>1.71E8</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="26" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B70" s="25" t="n">
         <v>7.5E7</v>
@@ -33566,11 +34321,14 @@
       </c>
       <c r="AJ70" s="25" t="n">
         <v>0.0</v>
+      </c>
+      <c r="AK70" s="25" t="n">
+        <v>1.71E8</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="26" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B71" s="25" t="n">
         <v>0.0</v>
@@ -33672,12 +34430,15 @@
         <v>0.0</v>
       </c>
       <c r="AJ71" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK71" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="26" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B72" s="25" t="n">
         <v>0.0</v>
@@ -33779,12 +34540,15 @@
         <v>0.0</v>
       </c>
       <c r="AJ72" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK72" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="28" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B73" s="25" t="n">
         <v>0.0</v>
@@ -33886,12 +34650,15 @@
         <v>0.0</v>
       </c>
       <c r="AJ73" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK73" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="26" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B74" s="25" t="n">
         <v>0.0</v>
@@ -33993,12 +34760,15 @@
         <v>0.0</v>
       </c>
       <c r="AJ74" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK74" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="26" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B75" s="25" t="n">
         <v>0.0</v>
@@ -34100,12 +34870,15 @@
         <v>0.0</v>
       </c>
       <c r="AJ75" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK75" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="26" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B76" s="25" t="n">
         <v>0.0</v>
@@ -34207,12 +34980,15 @@
         <v>0.0</v>
       </c>
       <c r="AJ76" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK76" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="26" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B77" s="25" t="n">
         <v>0.0</v>
@@ -34314,12 +35090,15 @@
         <v>0.0</v>
       </c>
       <c r="AJ77" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK77" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="26" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B78" s="25" t="n">
         <v>0.0</v>
@@ -34421,12 +35200,15 @@
         <v>0.0</v>
       </c>
       <c r="AJ78" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK78" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="28" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B79" s="25" t="n">
         <v>2.1373709927E10</v>
@@ -34528,12 +35310,15 @@
         <v>0.0</v>
       </c>
       <c r="AJ79" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK79" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="26" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B80" s="25" t="n">
         <v>2.1373709927E10</v>
@@ -34635,12 +35420,15 @@
         <v>0.0</v>
       </c>
       <c r="AJ80" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK80" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="26" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B81" s="25" t="n">
         <v>0.0</v>
@@ -34742,12 +35530,15 @@
         <v>0.0</v>
       </c>
       <c r="AJ81" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK81" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="28" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B82" s="25" t="n">
         <v>0.0</v>
@@ -34849,12 +35640,15 @@
         <v>0.0</v>
       </c>
       <c r="AJ82" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK82" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="26" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B83" s="25" t="n">
         <v>0.0</v>
@@ -34956,12 +35750,15 @@
         <v>0.0</v>
       </c>
       <c r="AJ83" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK83" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="26" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B84" s="25" t="n">
         <v>0.0</v>
@@ -35063,12 +35860,15 @@
         <v>0.0</v>
       </c>
       <c r="AJ84" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK84" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="26" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B85" s="25" t="n">
         <v>0.0</v>
@@ -35170,12 +35970,15 @@
         <v>0.0</v>
       </c>
       <c r="AJ85" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK85" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="28" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B86" s="25" t="n">
         <v>0.0</v>
@@ -35277,12 +36080,15 @@
         <v>0.0</v>
       </c>
       <c r="AJ86" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK86" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="26" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B87" s="25" t="n">
         <v>0.0</v>
@@ -35384,12 +36190,15 @@
         <v>0.0</v>
       </c>
       <c r="AJ87" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK87" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="26" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B88" s="25" t="n">
         <v>0.0</v>
@@ -35491,12 +36300,15 @@
         <v>0.0</v>
       </c>
       <c r="AJ88" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK88" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="26" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B89" s="25" t="n">
         <v>0.0</v>
@@ -35598,12 +36410,15 @@
         <v>0.0</v>
       </c>
       <c r="AJ89" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK89" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="28" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B90" s="25" t="n">
         <v>1.831801671E9</v>
@@ -35706,11 +36521,14 @@
       </c>
       <c r="AJ90" s="25" t="n">
         <v>7.96812179E9</v>
+      </c>
+      <c r="AK90" s="25" t="n">
+        <v>1.2098095144E10</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="26" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B91" s="25" t="n">
         <v>5.3564979E8</v>
@@ -35813,11 +36631,14 @@
       </c>
       <c r="AJ91" s="25" t="n">
         <v>3.17197806E9</v>
+      </c>
+      <c r="AK91" s="25" t="n">
+        <v>5.558250715E9</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="26" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B92" s="25" t="n">
         <v>0.0</v>
@@ -35919,12 +36740,15 @@
         <v>0.0</v>
       </c>
       <c r="AJ92" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK92" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="26" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B93" s="25" t="n">
         <v>0.0</v>
@@ -36026,12 +36850,15 @@
         <v>0.0</v>
       </c>
       <c r="AJ93" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK93" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="26" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B94" s="25" t="n">
         <v>1.271742621E9</v>
@@ -36134,11 +36961,14 @@
       </c>
       <c r="AJ94" s="25" t="n">
         <v>4.165771766E9</v>
+      </c>
+      <c r="AK94" s="25" t="n">
+        <v>6.535456929E9</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="26" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B95" s="25" t="n">
         <v>0.0</v>
@@ -36240,12 +37070,15 @@
         <v>0.0</v>
       </c>
       <c r="AJ95" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK95" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="26" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B96" s="25" t="n">
         <v>2.440926E7</v>
@@ -36347,12 +37180,15 @@
         <v>9622260.0</v>
       </c>
       <c r="AJ96" s="25" t="n">
+        <v>4387500.0</v>
+      </c>
+      <c r="AK96" s="25" t="n">
         <v>4387500.0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="26" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B97" s="25" t="n">
         <v>0.0</v>
@@ -36455,11 +37291,14 @@
       </c>
       <c r="AJ97" s="25" t="n">
         <v>6.25984464E8</v>
+      </c>
+      <c r="AK97" s="25" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="26" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B98" s="25" t="n">
         <v>0.0</v>
@@ -36561,12 +37400,15 @@
         <v>2390228.0</v>
       </c>
       <c r="AJ98" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK98" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="26" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B99" s="25" t="n">
         <v>0.0</v>
@@ -36668,12 +37510,15 @@
         <v>0.0</v>
       </c>
       <c r="AJ99" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK99" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="28" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B100" s="25" t="n">
         <v>1.853476187E9</v>
@@ -36776,11 +37621,14 @@
       </c>
       <c r="AJ100" s="25" t="n">
         <v>1.583612096E9</v>
+      </c>
+      <c r="AK100" s="25" t="n">
+        <v>9.96919336E8</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="26" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B101" s="25" t="n">
         <v>0.0</v>
@@ -36882,12 +37730,15 @@
         <v>0.0</v>
       </c>
       <c r="AJ101" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK101" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="26" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B102" s="25" t="n">
         <v>0.0</v>
@@ -36989,12 +37840,15 @@
         <v>0.0</v>
       </c>
       <c r="AJ102" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK102" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="26" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B103" s="25" t="n">
         <v>0.0</v>
@@ -37096,12 +37950,15 @@
         <v>0.0</v>
       </c>
       <c r="AJ103" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK103" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="26" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B104" s="25" t="n">
         <v>1.853476187E9</v>
@@ -37204,11 +38061,14 @@
       </c>
       <c r="AJ104" s="25" t="n">
         <v>1.583612096E9</v>
+      </c>
+      <c r="AK104" s="25" t="n">
+        <v>9.96919336E8</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="28" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B105" s="25" t="n">
         <v>1.473062725E9</v>
@@ -37311,11 +38171,14 @@
       </c>
       <c r="AJ105" s="25" t="n">
         <v>1.011871202E9</v>
+      </c>
+      <c r="AK105" s="25" t="n">
+        <v>1.052501284E9</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="26" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B106" s="25" t="n">
         <v>0.0</v>
@@ -37417,12 +38280,15 @@
         <v>0.0</v>
       </c>
       <c r="AJ106" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK106" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="26" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B107" s="25" t="n">
         <v>1.6785996E7</v>
@@ -37525,11 +38391,14 @@
       </c>
       <c r="AJ107" s="25" t="n">
         <v>1.16189366E8</v>
+      </c>
+      <c r="AK107" s="25" t="n">
+        <v>1.28046538E8</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="26" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B108" s="25" t="n">
         <v>3.1611484E8</v>
@@ -37632,11 +38501,14 @@
       </c>
       <c r="AJ108" s="25" t="n">
         <v>6.44016525E8</v>
+      </c>
+      <c r="AK108" s="25" t="n">
+        <v>6.4983025E8</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="26" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B109" s="25" t="n">
         <v>0.0</v>
@@ -37738,12 +38610,15 @@
         <v>0.0</v>
       </c>
       <c r="AJ109" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK109" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="26" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B110" s="25" t="n">
         <v>0.0</v>
@@ -37845,12 +38720,15 @@
         <v>0.0</v>
       </c>
       <c r="AJ110" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK110" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="26" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B111" s="25" t="n">
         <v>0.0</v>
@@ -37952,12 +38830,15 @@
         <v>0.0</v>
       </c>
       <c r="AJ111" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK111" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="26" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B112" s="25" t="n">
         <v>0.0</v>
@@ -38059,12 +38940,15 @@
         <v>1.0E9</v>
       </c>
       <c r="AJ112" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK112" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="26" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B113" s="25" t="n">
         <v>0.0</v>
@@ -38166,12 +39050,15 @@
         <v>0.0</v>
       </c>
       <c r="AJ113" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK113" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="26" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B114" s="25" t="n">
         <v>1.140161889E9</v>
@@ -38274,11 +39161,14 @@
       </c>
       <c r="AJ114" s="25" t="n">
         <v>2.51665311E8</v>
+      </c>
+      <c r="AK114" s="25" t="n">
+        <v>2.74624496E8</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="28" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B115" s="25" t="n">
         <v>0.0</v>
@@ -38380,12 +39270,15 @@
         <v>0.0</v>
       </c>
       <c r="AJ115" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK115" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="26" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B116" s="25" t="n">
         <v>0.0</v>
@@ -38487,12 +39380,15 @@
         <v>0.0</v>
       </c>
       <c r="AJ116" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK116" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="26" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B117" s="25" t="n">
         <v>0.0</v>
@@ -38594,12 +39490,15 @@
         <v>0.0</v>
       </c>
       <c r="AJ117" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK117" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="26" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B118" s="25" t="n">
         <v>0.0</v>
@@ -38701,12 +39600,15 @@
         <v>0.0</v>
       </c>
       <c r="AJ118" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK118" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="26" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B119" s="25" t="n">
         <v>0.0</v>
@@ -38808,12 +39710,15 @@
         <v>0.0</v>
       </c>
       <c r="AJ119" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK119" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="26" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B120" s="25" t="n">
         <v>0.0</v>
@@ -38915,12 +39820,15 @@
         <v>0.0</v>
       </c>
       <c r="AJ120" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK120" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="28" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B121" s="25" t="n">
         <v>4.760088E10</v>
@@ -39022,12 +39930,15 @@
         <v>0.0</v>
       </c>
       <c r="AJ121" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK121" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="26" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B122" s="25" t="n">
         <v>0.0</v>
@@ -39129,12 +40040,15 @@
         <v>0.0</v>
       </c>
       <c r="AJ122" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK122" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="26" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B123" s="25" t="n">
         <v>4.760088E10</v>
@@ -39236,12 +40150,15 @@
         <v>0.0</v>
       </c>
       <c r="AJ123" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK123" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="28" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B124" s="25" t="n">
         <v>2.72608171585E11</v>
@@ -39344,11 +40261,14 @@
       </c>
       <c r="AJ124" s="25" t="n">
         <v>1.66019486737E11</v>
+      </c>
+      <c r="AK124" s="25" t="n">
+        <v>1.8128677524E11</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="26" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B125" s="25" t="n">
         <v>2.72608171585E11</v>
@@ -39451,11 +40371,14 @@
       </c>
       <c r="AJ125" s="25" t="n">
         <v>1.66019486737E11</v>
+      </c>
+      <c r="AK125" s="25" t="n">
+        <v>1.8128677524E11</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="26" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B126" s="25" t="n">
         <v>0.0</v>
@@ -39557,12 +40480,15 @@
         <v>0.0</v>
       </c>
       <c r="AJ126" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK126" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="26" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B127" s="25" t="n">
         <v>0.0</v>
@@ -39664,12 +40590,15 @@
         <v>0.0</v>
       </c>
       <c r="AJ127" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK127" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="28" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B128" s="25" t="n">
         <v>2.31489E8</v>
@@ -39771,12 +40700,15 @@
         <v>0.0</v>
       </c>
       <c r="AJ128" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK128" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="26" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B129" s="25" t="n">
         <v>0.0</v>
@@ -39878,12 +40810,15 @@
         <v>0.0</v>
       </c>
       <c r="AJ129" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK129" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="26" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B130" s="25" t="n">
         <v>2.31489E8</v>
@@ -39985,12 +40920,15 @@
         <v>0.0</v>
       </c>
       <c r="AJ130" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK130" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="26" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B131" s="25" t="n">
         <v>0.0</v>
@@ -40092,12 +41030,15 @@
         <v>0.0</v>
       </c>
       <c r="AJ131" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK131" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="26" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B132" s="25" t="n">
         <v>0.0</v>
@@ -40199,12 +41140,15 @@
         <v>0.0</v>
       </c>
       <c r="AJ132" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK132" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="26" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B133" s="25" t="n">
         <v>0.0</v>
@@ -40306,12 +41250,15 @@
         <v>0.0</v>
       </c>
       <c r="AJ133" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK133" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="26" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B134" s="25" t="n">
         <v>0.0</v>
@@ -40413,12 +41360,15 @@
         <v>0.0</v>
       </c>
       <c r="AJ134" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK134" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="28" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B135" s="25" t="n">
         <v>2.25418690783E11</v>
@@ -40521,11 +41471,14 @@
       </c>
       <c r="AJ135" s="25" t="n">
         <v>1.31314532972E11</v>
+      </c>
+      <c r="AK135" s="25" t="n">
+        <v>1.38397549503E11</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="26" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B136" s="25" t="n">
         <v>0.0</v>
@@ -40627,12 +41580,15 @@
         <v>0.0</v>
       </c>
       <c r="AJ136" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK136" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="26" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B137" s="25" t="n">
         <v>2.2538485732E11</v>
@@ -40735,11 +41691,14 @@
       </c>
       <c r="AJ137" s="25" t="n">
         <v>1.31314532972E11</v>
+      </c>
+      <c r="AK137" s="25" t="n">
+        <v>1.38397549503E11</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="26" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B138" s="25" t="n">
         <v>0.0</v>
@@ -40841,12 +41800,15 @@
         <v>0.0</v>
       </c>
       <c r="AJ138" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK138" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="26" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B139" s="25" t="n">
         <v>0.0</v>
@@ -40948,12 +41910,15 @@
         <v>0.0</v>
       </c>
       <c r="AJ139" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK139" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="26" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B140" s="25" t="n">
         <v>0.0</v>
@@ -41055,12 +42020,15 @@
         <v>0.0</v>
       </c>
       <c r="AJ140" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK140" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="26" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B141" s="25" t="n">
         <v>0.0</v>
@@ -41162,12 +42130,15 @@
         <v>0.0</v>
       </c>
       <c r="AJ141" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK141" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="26" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B142" s="25" t="n">
         <v>0.0</v>
@@ -41269,12 +42240,15 @@
         <v>0.0</v>
       </c>
       <c r="AJ142" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK142" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="26" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B143" s="25" t="n">
         <v>3.3833463E7</v>
@@ -41376,12 +42350,15 @@
         <v>0.0</v>
       </c>
       <c r="AJ143" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK143" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="28" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B144" s="25" t="n">
         <v>1.093040018E9</v>
@@ -41484,11 +42461,14 @@
       </c>
       <c r="AJ144" s="25" t="n">
         <v>2.3202369E9</v>
+      </c>
+      <c r="AK144" s="25" t="n">
+        <v>2.764509196E9</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="26" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B145" s="25" t="n">
         <v>1.026949163E9</v>
@@ -41591,11 +42571,14 @@
       </c>
       <c r="AJ145" s="25" t="n">
         <v>4.5141826E8</v>
+      </c>
+      <c r="AK145" s="25" t="n">
+        <v>1.664842802E9</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="26" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B146" s="25" t="n">
         <v>0.0</v>
@@ -41697,12 +42680,15 @@
         <v>0.0</v>
       </c>
       <c r="AJ146" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK146" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="26" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B147" s="25" t="n">
         <v>0.0</v>
@@ -41804,12 +42790,15 @@
         <v>0.0</v>
       </c>
       <c r="AJ147" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK147" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="26" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B148" s="25" t="n">
         <v>0.0</v>
@@ -41911,12 +42900,15 @@
         <v>0.0</v>
       </c>
       <c r="AJ148" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK148" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="26" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B149" s="25" t="n">
         <v>0.0</v>
@@ -42018,12 +43010,15 @@
         <v>0.0</v>
       </c>
       <c r="AJ149" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK149" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="26" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B150" s="25" t="n">
         <v>6.6090855E7</v>
@@ -42126,11 +43121,14 @@
       </c>
       <c r="AJ150" s="25" t="n">
         <v>1.613556054E9</v>
+      </c>
+      <c r="AK150" s="25" t="n">
+        <v>9.59376078E8</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="26" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B151" s="25" t="n">
         <v>0.0</v>
@@ -42233,11 +43231,14 @@
       </c>
       <c r="AJ151" s="25" t="n">
         <v>2.55262586E8</v>
+      </c>
+      <c r="AK151" s="25" t="n">
+        <v>6.2114434E7</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="26" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B152" s="25" t="n">
         <v>0.0</v>
@@ -42340,11 +43341,14 @@
       </c>
       <c r="AJ152" s="25" t="n">
         <v>-8.1328684E7</v>
+      </c>
+      <c r="AK152" s="25" t="n">
+        <v>1.59504566E8</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="26" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B153" s="25" t="n">
         <v>0.0</v>
@@ -42447,11 +43451,14 @@
       </c>
       <c r="AJ153" s="25" t="n">
         <v>8.1328684E7</v>
+      </c>
+      <c r="AK153" s="25" t="n">
+        <v>-8.1328684E7</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="28" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B154" s="25" t="n">
         <v>2.20986408E8</v>
@@ -42554,11 +43561,14 @@
       </c>
       <c r="AJ154" s="25" t="n">
         <v>1.96323727E8</v>
+      </c>
+      <c r="AK154" s="25" t="n">
+        <v>2.1040361E7</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="26" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B155" s="25" t="n">
         <v>1.56857621E8</v>
@@ -42660,12 +43670,15 @@
         <v>0.0</v>
       </c>
       <c r="AJ155" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK155" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="26" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B156" s="25" t="n">
         <v>0.0</v>
@@ -42767,12 +43780,15 @@
         <v>0.0</v>
       </c>
       <c r="AJ156" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK156" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="26" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B157" s="25" t="n">
         <v>0.0</v>
@@ -42874,12 +43890,15 @@
         <v>0.0</v>
       </c>
       <c r="AJ157" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK157" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="26" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B158" s="25" t="n">
         <v>0.0</v>
@@ -42981,12 +44000,15 @@
         <v>0.0</v>
       </c>
       <c r="AJ158" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK158" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="26" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B159" s="25" t="n">
         <v>5.9922008E7</v>
@@ -43089,11 +44111,14 @@
       </c>
       <c r="AJ159" s="25" t="n">
         <v>1.96323727E8</v>
+      </c>
+      <c r="AK159" s="25" t="n">
+        <v>2.1040361E7</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="26" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B160" s="25" t="n">
         <v>4206779.0</v>
@@ -43195,12 +44220,15 @@
         <v>0.0</v>
       </c>
       <c r="AJ160" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK160" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="26" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B161" s="25" t="n">
         <v>0.0</v>
@@ -43302,12 +44330,15 @@
         <v>0.0</v>
       </c>
       <c r="AJ161" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK161" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="26" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B162" s="25" t="n">
         <v>0.0</v>
@@ -43409,12 +44440,15 @@
         <v>0.0</v>
       </c>
       <c r="AJ162" s="25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AK162" s="25" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="28" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B163" s="25" t="n">
         <v>2.82745916953E11</v>
@@ -43517,11 +44551,14 @@
       </c>
       <c r="AJ163" s="25" t="n">
         <v>-3.49214843109E11</v>
+      </c>
+      <c r="AK163" s="25" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="26" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B164" s="25" t="n">
         <v>1.81380639987E11</v>
@@ -43624,11 +44661,14 @@
       </c>
       <c r="AJ164" s="25" t="n">
         <v>-2.8038811155E11</v>
+      </c>
+      <c r="AK164" s="25" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="26" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B165" s="25" t="n">
         <v>5.6101079766E10</v>
@@ -43731,11 +44771,14 @@
       </c>
       <c r="AJ165" s="25" t="n">
         <v>-4.0860684366E10</v>
+      </c>
+      <c r="AK165" s="25" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="26" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B166" s="25" t="n">
         <v>8.765071457E9</v>
@@ -43838,11 +44881,14 @@
       </c>
       <c r="AJ166" s="25" t="n">
         <v>-5.209258822E9</v>
+      </c>
+      <c r="AK166" s="25" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="26" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B167" s="25" t="n">
         <v>2.999003588E10</v>
@@ -43945,11 +44991,14 @@
       </c>
       <c r="AJ167" s="25" t="n">
         <v>-1.5914101703E10</v>
+      </c>
+      <c r="AK167" s="25" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="26" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B168" s="25" t="n">
         <v>6.509089863E9</v>
@@ -44052,6 +45101,9 @@
       </c>
       <c r="AJ168" s="25" t="n">
         <v>-6.842686668E9</v>
+      </c>
+      <c r="AK168" s="25" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.2">
@@ -44092,7 +45144,7 @@
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B10:F10"/>
-    <mergeCell ref="H10:AJ10"/>
+    <mergeCell ref="H10:AK10"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A174" r:id="rId1" display="https://www.vietcap.com.vn/" xr:uid="{D6386FB0-752A-884E-829A-45A876D98EB2}"/>

--- a/data/CAP.xlsx
+++ b/data/CAP.xlsx
@@ -73,7 +73,7 @@
     <t>Ngày xuất</t>
   </si>
   <si>
-    <t>17/12/2025</t>
+    <t>21/12/2025</t>
   </si>
   <si>
     <t>CAP</t>

--- a/data/CAP.xlsx
+++ b/data/CAP.xlsx
@@ -73,7 +73,7 @@
     <t>Ngày xuất</t>
   </si>
   <si>
-    <t>21/12/2025</t>
+    <t>23/12/2025</t>
   </si>
   <si>
     <t>CAP</t>

--- a/data/CAP.xlsx
+++ b/data/CAP.xlsx
@@ -73,7 +73,7 @@
     <t>Ngày xuất</t>
   </si>
   <si>
-    <t>23/12/2025</t>
+    <t>25/12/2025</t>
   </si>
   <si>
     <t>CAP</t>
